--- a/4 курс 1 семестр/Мат. моделирование/ММИгошевРВП4.xlsx
+++ b/4 курс 1 семестр/Мат. моделирование/ММИгошевРВП4.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="ПР1" sheetId="2" r:id="rId1"/>
     <sheet name="ПР2" sheetId="3" r:id="rId2"/>
+    <sheet name="ПР3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">ПР1!$G$107:$H$107</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
   <si>
     <t>Решение ЗЛП</t>
   </si>
@@ -630,12 +631,87 @@
 x14+x24+x34+x44=35
 xij&gt;=0; i=1,4; j=1,4</t>
   </si>
+  <si>
+    <t>Метод потенциалов</t>
+  </si>
+  <si>
+    <t>Проверить опорный план на оптимальность.</t>
+  </si>
+  <si>
+    <t>В1</t>
+  </si>
+  <si>
+    <t>В2</t>
+  </si>
+  <si>
+    <t>В3</t>
+  </si>
+  <si>
+    <t>В4</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>А3</t>
+  </si>
+  <si>
+    <t>А4</t>
+  </si>
+  <si>
+    <t>аi</t>
+  </si>
+  <si>
+    <t>потенциал поставщиков</t>
+  </si>
+  <si>
+    <t>вj</t>
+  </si>
+  <si>
+    <t>потенциал потребителей</t>
+  </si>
+  <si>
+    <t>план оптимальный</t>
+  </si>
+  <si>
+    <t>Задание 2.</t>
+  </si>
+  <si>
+    <t>Задание 4.</t>
+  </si>
+  <si>
+    <t>Проверить опорный план ПР2 Задание 4 метода СЗУ на оптимальность.</t>
+  </si>
+  <si>
+    <t>Метод минимальной стоимости</t>
+  </si>
+  <si>
+    <t>Задание 3.</t>
+  </si>
+  <si>
+    <t>Задание 6.</t>
+  </si>
+  <si>
+    <t>Проверить опорный план ПР2 Задание 4 метода min стоимости на оптимальность.</t>
+  </si>
+  <si>
+    <t>Проверить план грузоперевозок на оптимальность</t>
+  </si>
+  <si>
+    <t>Оптимизировать опорный план Задание 4 ПР2 (полученный любым методом, который не является оптимальным и имеет меньшую стоимость)</t>
+  </si>
+  <si>
+    <t>Опорный план является оптимальным. Минимальная стоимость перевозок  составит 1810.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +749,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +870,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1085,11 +1256,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,6 +1537,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,6 +1611,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1630,6 +2038,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3400425" cy="190500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="5930900"/>
+          <a:ext cx="3400425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2057400" cy="419100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image5.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="6251575"/>
+          <a:ext cx="2057400" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1951,10 +2428,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="136"/>
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -2126,10 +2603,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="97"/>
+      <c r="B64" s="135"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
     </row>
@@ -2154,10 +2631,10 @@
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="97" t="s">
+      <c r="A67" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="97"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="13" t="s">
         <v>6</v>
       </c>
@@ -2177,10 +2654,10 @@
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="96"/>
+      <c r="B69" s="134"/>
       <c r="C69" s="17"/>
       <c r="D69" s="11" t="s">
         <v>13</v>
@@ -2262,16 +2739,16 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="97" t="s">
+      <c r="A105" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="97"/>
+      <c r="B105" s="135"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
-      <c r="G105" s="97" t="s">
+      <c r="G105" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="97"/>
+      <c r="H105" s="135"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
     </row>
@@ -2312,18 +2789,18 @@
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="97" t="s">
+      <c r="A108" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="97"/>
+      <c r="B108" s="135"/>
       <c r="C108" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="G108" s="97" t="s">
+      <c r="G108" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="97"/>
+      <c r="H108" s="135"/>
       <c r="I108" s="19" t="s">
         <v>6</v>
       </c>
@@ -2354,18 +2831,18 @@
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="96" t="s">
+      <c r="A110" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="96"/>
+      <c r="B110" s="134"/>
       <c r="C110" s="17"/>
       <c r="D110" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="96" t="s">
+      <c r="G110" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="H110" s="96"/>
+      <c r="H110" s="134"/>
       <c r="I110" s="17"/>
       <c r="J110" s="11" t="s">
         <v>13</v>
@@ -2511,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="60" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67:X75"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3452,35 +3929,35 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M67" s="99" t="s">
+      <c r="M67" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="N67" s="99"/>
-      <c r="O67" s="99"/>
-      <c r="P67" s="99"/>
-      <c r="Q67" s="99"/>
-      <c r="R67" s="99"/>
-      <c r="S67" s="99"/>
-      <c r="T67" s="99"/>
-      <c r="U67" s="99"/>
-      <c r="V67" s="99"/>
-      <c r="W67" s="99"/>
-      <c r="X67" s="99"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="137"/>
+      <c r="P67" s="137"/>
+      <c r="Q67" s="137"/>
+      <c r="R67" s="137"/>
+      <c r="S67" s="137"/>
+      <c r="T67" s="137"/>
+      <c r="U67" s="137"/>
+      <c r="V67" s="137"/>
+      <c r="W67" s="137"/>
+      <c r="X67" s="137"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="85"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="99"/>
-      <c r="O68" s="99"/>
-      <c r="P68" s="99"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="99"/>
-      <c r="T68" s="99"/>
-      <c r="U68" s="99"/>
-      <c r="V68" s="99"/>
-      <c r="W68" s="99"/>
-      <c r="X68" s="99"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="137"/>
+      <c r="Q68" s="137"/>
+      <c r="R68" s="137"/>
+      <c r="S68" s="137"/>
+      <c r="T68" s="137"/>
+      <c r="U68" s="137"/>
+      <c r="V68" s="137"/>
+      <c r="W68" s="137"/>
+      <c r="X68" s="137"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
@@ -3501,18 +3978,18 @@
       <c r="F69" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M69" s="99"/>
-      <c r="N69" s="99"/>
-      <c r="O69" s="99"/>
-      <c r="P69" s="99"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="99"/>
-      <c r="S69" s="99"/>
-      <c r="T69" s="99"/>
-      <c r="U69" s="99"/>
-      <c r="V69" s="99"/>
-      <c r="W69" s="99"/>
-      <c r="X69" s="99"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="137"/>
+      <c r="O69" s="137"/>
+      <c r="P69" s="137"/>
+      <c r="Q69" s="137"/>
+      <c r="R69" s="137"/>
+      <c r="S69" s="137"/>
+      <c r="T69" s="137"/>
+      <c r="U69" s="137"/>
+      <c r="V69" s="137"/>
+      <c r="W69" s="137"/>
+      <c r="X69" s="137"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="21" t="s">
@@ -3533,18 +4010,18 @@
       <c r="F70" s="5">
         <v>55</v>
       </c>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="99"/>
-      <c r="P70" s="99"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="99"/>
-      <c r="S70" s="99"/>
-      <c r="T70" s="99"/>
-      <c r="U70" s="99"/>
-      <c r="V70" s="99"/>
-      <c r="W70" s="99"/>
-      <c r="X70" s="99"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="137"/>
+      <c r="O70" s="137"/>
+      <c r="P70" s="137"/>
+      <c r="Q70" s="137"/>
+      <c r="R70" s="137"/>
+      <c r="S70" s="137"/>
+      <c r="T70" s="137"/>
+      <c r="U70" s="137"/>
+      <c r="V70" s="137"/>
+      <c r="W70" s="137"/>
+      <c r="X70" s="137"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="21" t="s">
@@ -3565,18 +4042,18 @@
       <c r="F71" s="5">
         <v>30</v>
       </c>
-      <c r="M71" s="99"/>
-      <c r="N71" s="99"/>
-      <c r="O71" s="99"/>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="99"/>
-      <c r="S71" s="99"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="99"/>
-      <c r="V71" s="99"/>
-      <c r="W71" s="99"/>
-      <c r="X71" s="99"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="137"/>
+      <c r="O71" s="137"/>
+      <c r="P71" s="137"/>
+      <c r="Q71" s="137"/>
+      <c r="R71" s="137"/>
+      <c r="S71" s="137"/>
+      <c r="T71" s="137"/>
+      <c r="U71" s="137"/>
+      <c r="V71" s="137"/>
+      <c r="W71" s="137"/>
+      <c r="X71" s="137"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="21" t="s">
@@ -3597,18 +4074,18 @@
       <c r="F72" s="5">
         <v>15</v>
       </c>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="99"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
-      <c r="V72" s="99"/>
-      <c r="W72" s="99"/>
-      <c r="X72" s="99"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="137"/>
+      <c r="O72" s="137"/>
+      <c r="P72" s="137"/>
+      <c r="Q72" s="137"/>
+      <c r="R72" s="137"/>
+      <c r="S72" s="137"/>
+      <c r="T72" s="137"/>
+      <c r="U72" s="137"/>
+      <c r="V72" s="137"/>
+      <c r="W72" s="137"/>
+      <c r="X72" s="137"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="76" t="s">
@@ -3629,18 +4106,18 @@
       <c r="F73" s="5">
         <v>30</v>
       </c>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="99"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="99"/>
-      <c r="U73" s="99"/>
-      <c r="V73" s="99"/>
-      <c r="W73" s="99"/>
-      <c r="X73" s="99"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="137"/>
+      <c r="Q73" s="137"/>
+      <c r="R73" s="137"/>
+      <c r="S73" s="137"/>
+      <c r="T73" s="137"/>
+      <c r="U73" s="137"/>
+      <c r="V73" s="137"/>
+      <c r="W73" s="137"/>
+      <c r="X73" s="137"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="21" t="s">
@@ -3659,32 +4136,32 @@
         <v>35</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
-      <c r="O74" s="99"/>
-      <c r="P74" s="99"/>
-      <c r="Q74" s="99"/>
-      <c r="R74" s="99"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="99"/>
-      <c r="X74" s="99"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="137"/>
+      <c r="O74" s="137"/>
+      <c r="P74" s="137"/>
+      <c r="Q74" s="137"/>
+      <c r="R74" s="137"/>
+      <c r="S74" s="137"/>
+      <c r="T74" s="137"/>
+      <c r="U74" s="137"/>
+      <c r="V74" s="137"/>
+      <c r="W74" s="137"/>
+      <c r="X74" s="137"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="99"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
-      <c r="V75" s="99"/>
-      <c r="W75" s="99"/>
-      <c r="X75" s="99"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="137"/>
+      <c r="O75" s="137"/>
+      <c r="P75" s="137"/>
+      <c r="Q75" s="137"/>
+      <c r="R75" s="137"/>
+      <c r="S75" s="137"/>
+      <c r="T75" s="137"/>
+      <c r="U75" s="137"/>
+      <c r="V75" s="137"/>
+      <c r="W75" s="137"/>
+      <c r="X75" s="137"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
@@ -4510,79 +4987,79 @@
       <c r="A97" t="s">
         <v>37</v>
       </c>
-      <c r="B97" s="100" t="s">
+      <c r="B97" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="100"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="100"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="100"/>
-      <c r="J97" s="100"/>
-      <c r="K97" s="100"/>
-      <c r="L97" s="100"/>
-      <c r="M97" s="100"/>
-      <c r="N97" s="100"/>
-      <c r="O97" s="100"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="138"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="138"/>
+      <c r="H97" s="138"/>
+      <c r="I97" s="138"/>
+      <c r="J97" s="138"/>
+      <c r="K97" s="138"/>
+      <c r="L97" s="138"/>
+      <c r="M97" s="138"/>
+      <c r="N97" s="138"/>
+      <c r="O97" s="138"/>
       <c r="Q97" t="s">
         <v>37</v>
       </c>
-      <c r="R97" s="100" t="s">
+      <c r="R97" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="S97" s="100"/>
-      <c r="T97" s="100"/>
-      <c r="U97" s="100"/>
-      <c r="V97" s="100"/>
-      <c r="W97" s="100"/>
-      <c r="X97" s="100"/>
-      <c r="Y97" s="100"/>
-      <c r="Z97" s="100"/>
-      <c r="AA97" s="100"/>
-      <c r="AB97" s="100"/>
-      <c r="AC97" s="100"/>
-      <c r="AD97" s="100"/>
-      <c r="AE97" s="100"/>
-      <c r="AF97" s="100"/>
-      <c r="AG97" s="100"/>
-      <c r="AH97" s="100"/>
-      <c r="AI97" s="100"/>
+      <c r="S97" s="138"/>
+      <c r="T97" s="138"/>
+      <c r="U97" s="138"/>
+      <c r="V97" s="138"/>
+      <c r="W97" s="138"/>
+      <c r="X97" s="138"/>
+      <c r="Y97" s="138"/>
+      <c r="Z97" s="138"/>
+      <c r="AA97" s="138"/>
+      <c r="AB97" s="138"/>
+      <c r="AC97" s="138"/>
+      <c r="AD97" s="138"/>
+      <c r="AE97" s="138"/>
+      <c r="AF97" s="138"/>
+      <c r="AG97" s="138"/>
+      <c r="AH97" s="138"/>
+      <c r="AI97" s="138"/>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-      <c r="L98" s="100"/>
-      <c r="M98" s="100"/>
-      <c r="N98" s="100"/>
-      <c r="O98" s="100"/>
-      <c r="R98" s="100"/>
-      <c r="S98" s="100"/>
-      <c r="T98" s="100"/>
-      <c r="U98" s="100"/>
-      <c r="V98" s="100"/>
-      <c r="W98" s="100"/>
-      <c r="X98" s="100"/>
-      <c r="Y98" s="100"/>
-      <c r="Z98" s="100"/>
-      <c r="AA98" s="100"/>
-      <c r="AB98" s="100"/>
-      <c r="AC98" s="100"/>
-      <c r="AD98" s="100"/>
-      <c r="AE98" s="100"/>
-      <c r="AF98" s="100"/>
-      <c r="AG98" s="100"/>
-      <c r="AH98" s="100"/>
-      <c r="AI98" s="100"/>
+      <c r="B98" s="138"/>
+      <c r="C98" s="138"/>
+      <c r="D98" s="138"/>
+      <c r="E98" s="138"/>
+      <c r="F98" s="138"/>
+      <c r="G98" s="138"/>
+      <c r="H98" s="138"/>
+      <c r="I98" s="138"/>
+      <c r="J98" s="138"/>
+      <c r="K98" s="138"/>
+      <c r="L98" s="138"/>
+      <c r="M98" s="138"/>
+      <c r="N98" s="138"/>
+      <c r="O98" s="138"/>
+      <c r="R98" s="138"/>
+      <c r="S98" s="138"/>
+      <c r="T98" s="138"/>
+      <c r="U98" s="138"/>
+      <c r="V98" s="138"/>
+      <c r="W98" s="138"/>
+      <c r="X98" s="138"/>
+      <c r="Y98" s="138"/>
+      <c r="Z98" s="138"/>
+      <c r="AA98" s="138"/>
+      <c r="AB98" s="138"/>
+      <c r="AC98" s="138"/>
+      <c r="AD98" s="138"/>
+      <c r="AE98" s="138"/>
+      <c r="AF98" s="138"/>
+      <c r="AG98" s="138"/>
+      <c r="AH98" s="138"/>
+      <c r="AI98" s="138"/>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
@@ -4621,17 +5098,17 @@
       <c r="G112" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J112" s="99" t="s">
+      <c r="J112" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="K112" s="99"/>
-      <c r="L112" s="99"/>
-      <c r="M112" s="99"/>
-      <c r="N112" s="99"/>
-      <c r="O112" s="99"/>
-      <c r="P112" s="99"/>
-      <c r="Q112" s="99"/>
-      <c r="R112" s="99"/>
+      <c r="K112" s="147"/>
+      <c r="L112" s="147"/>
+      <c r="M112" s="147"/>
+      <c r="N112" s="147"/>
+      <c r="O112" s="147"/>
+      <c r="P112" s="147"/>
+      <c r="Q112" s="147"/>
+      <c r="R112" s="147"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
@@ -4655,15 +5132,15 @@
       <c r="G113" s="5">
         <v>200</v>
       </c>
-      <c r="J113" s="99"/>
-      <c r="K113" s="99"/>
-      <c r="L113" s="99"/>
-      <c r="M113" s="99"/>
-      <c r="N113" s="99"/>
-      <c r="O113" s="99"/>
-      <c r="P113" s="99"/>
-      <c r="Q113" s="99"/>
-      <c r="R113" s="99"/>
+      <c r="J113" s="147"/>
+      <c r="K113" s="147"/>
+      <c r="L113" s="147"/>
+      <c r="M113" s="147"/>
+      <c r="N113" s="147"/>
+      <c r="O113" s="147"/>
+      <c r="P113" s="147"/>
+      <c r="Q113" s="147"/>
+      <c r="R113" s="147"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A114" s="21" t="s">
@@ -4687,15 +5164,15 @@
       <c r="G114" s="5">
         <v>300</v>
       </c>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
-      <c r="L114" s="99"/>
-      <c r="M114" s="99"/>
-      <c r="N114" s="99"/>
-      <c r="O114" s="99"/>
-      <c r="P114" s="99"/>
-      <c r="Q114" s="99"/>
-      <c r="R114" s="99"/>
+      <c r="J114" s="147"/>
+      <c r="K114" s="147"/>
+      <c r="L114" s="147"/>
+      <c r="M114" s="147"/>
+      <c r="N114" s="147"/>
+      <c r="O114" s="147"/>
+      <c r="P114" s="147"/>
+      <c r="Q114" s="147"/>
+      <c r="R114" s="147"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A115" s="21" t="s">
@@ -4719,15 +5196,15 @@
       <c r="G115" s="5">
         <v>200</v>
       </c>
-      <c r="J115" s="99"/>
-      <c r="K115" s="99"/>
-      <c r="L115" s="99"/>
-      <c r="M115" s="99"/>
-      <c r="N115" s="99"/>
-      <c r="O115" s="99"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="99"/>
-      <c r="R115" s="99"/>
+      <c r="J115" s="147"/>
+      <c r="K115" s="147"/>
+      <c r="L115" s="147"/>
+      <c r="M115" s="147"/>
+      <c r="N115" s="147"/>
+      <c r="O115" s="147"/>
+      <c r="P115" s="147"/>
+      <c r="Q115" s="147"/>
+      <c r="R115" s="147"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A116" s="21" t="s">
@@ -4751,15 +5228,15 @@
       <c r="G116" s="5">
         <v>200</v>
       </c>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
-      <c r="L116" s="99"/>
-      <c r="M116" s="99"/>
-      <c r="N116" s="99"/>
-      <c r="O116" s="99"/>
-      <c r="P116" s="99"/>
-      <c r="Q116" s="99"/>
-      <c r="R116" s="99"/>
+      <c r="J116" s="147"/>
+      <c r="K116" s="147"/>
+      <c r="L116" s="147"/>
+      <c r="M116" s="147"/>
+      <c r="N116" s="147"/>
+      <c r="O116" s="147"/>
+      <c r="P116" s="147"/>
+      <c r="Q116" s="147"/>
+      <c r="R116" s="147"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A117" s="21" t="s">
@@ -4783,15 +5260,15 @@
       <c r="G117" s="5">
         <v>100</v>
       </c>
-      <c r="J117" s="99"/>
-      <c r="K117" s="99"/>
-      <c r="L117" s="99"/>
-      <c r="M117" s="99"/>
-      <c r="N117" s="99"/>
-      <c r="O117" s="99"/>
-      <c r="P117" s="99"/>
-      <c r="Q117" s="99"/>
-      <c r="R117" s="99"/>
+      <c r="J117" s="147"/>
+      <c r="K117" s="147"/>
+      <c r="L117" s="147"/>
+      <c r="M117" s="147"/>
+      <c r="N117" s="147"/>
+      <c r="O117" s="147"/>
+      <c r="P117" s="147"/>
+      <c r="Q117" s="147"/>
+      <c r="R117" s="147"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A118" s="21" t="s">
@@ -4813,15 +5290,15 @@
         <v>100</v>
       </c>
       <c r="G118" s="5"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="99"/>
-      <c r="L118" s="99"/>
-      <c r="M118" s="99"/>
-      <c r="N118" s="99"/>
-      <c r="O118" s="99"/>
-      <c r="P118" s="99"/>
-      <c r="Q118" s="99"/>
-      <c r="R118" s="99"/>
+      <c r="J118" s="147"/>
+      <c r="K118" s="147"/>
+      <c r="L118" s="147"/>
+      <c r="M118" s="147"/>
+      <c r="N118" s="147"/>
+      <c r="O118" s="147"/>
+      <c r="P118" s="147"/>
+      <c r="Q118" s="147"/>
+      <c r="R118" s="147"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
@@ -5152,7 +5629,7 @@
       </c>
       <c r="S127" s="62"/>
       <c r="T127" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U127" s="58"/>
       <c r="V127" s="59">
@@ -5267,7 +5744,7 @@
       </c>
       <c r="S129" s="58"/>
       <c r="T129" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U129" s="62"/>
       <c r="V129" s="61">
@@ -5572,7 +6049,7 @@
       </c>
       <c r="AB134" s="53">
         <f>Q126*R125+S130*T129+U128*V127+U124*V123+W126*X125+W132*X131</f>
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="AC134" s="54">
         <f>SUMPRODUCT(B113:F117,Q138:U142)</f>
@@ -5865,110 +6342,1480 @@
       <c r="A145" t="s">
         <v>37</v>
       </c>
-      <c r="B145" s="100" t="s">
+      <c r="B145" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="C145" s="100"/>
-      <c r="D145" s="100"/>
-      <c r="E145" s="100"/>
-      <c r="F145" s="100"/>
-      <c r="G145" s="100"/>
-      <c r="H145" s="100"/>
-      <c r="I145" s="100"/>
-      <c r="J145" s="100"/>
-      <c r="K145" s="100"/>
-      <c r="L145" s="100"/>
-      <c r="M145" s="100"/>
-      <c r="N145" s="100"/>
-      <c r="O145" s="100"/>
+      <c r="C145" s="138"/>
+      <c r="D145" s="138"/>
+      <c r="E145" s="138"/>
+      <c r="F145" s="138"/>
+      <c r="G145" s="138"/>
+      <c r="H145" s="138"/>
+      <c r="I145" s="138"/>
+      <c r="J145" s="138"/>
+      <c r="K145" s="138"/>
+      <c r="L145" s="138"/>
+      <c r="M145" s="138"/>
+      <c r="N145" s="138"/>
+      <c r="O145" s="138"/>
       <c r="P145" t="s">
         <v>37</v>
       </c>
-      <c r="Q145" s="100" t="s">
+      <c r="Q145" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="R145" s="100"/>
-      <c r="S145" s="100"/>
-      <c r="T145" s="100"/>
-      <c r="U145" s="100"/>
-      <c r="V145" s="100"/>
-      <c r="W145" s="100"/>
-      <c r="X145" s="100"/>
-      <c r="Y145" s="100"/>
-      <c r="Z145" s="100"/>
-      <c r="AA145" s="100"/>
-      <c r="AB145" s="100"/>
-      <c r="AC145" s="100"/>
-      <c r="AD145" s="100"/>
+      <c r="R145" s="138"/>
+      <c r="S145" s="138"/>
+      <c r="T145" s="138"/>
+      <c r="U145" s="138"/>
+      <c r="V145" s="138"/>
+      <c r="W145" s="138"/>
+      <c r="X145" s="138"/>
+      <c r="Y145" s="138"/>
+      <c r="Z145" s="138"/>
+      <c r="AA145" s="138"/>
+      <c r="AB145" s="138"/>
+      <c r="AC145" s="138"/>
+      <c r="AD145" s="138"/>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B146" s="100"/>
-      <c r="C146" s="100"/>
-      <c r="D146" s="100"/>
-      <c r="E146" s="100"/>
-      <c r="F146" s="100"/>
-      <c r="G146" s="100"/>
-      <c r="H146" s="100"/>
-      <c r="I146" s="100"/>
-      <c r="J146" s="100"/>
-      <c r="K146" s="100"/>
-      <c r="L146" s="100"/>
-      <c r="M146" s="100"/>
-      <c r="N146" s="100"/>
-      <c r="O146" s="100"/>
-      <c r="Q146" s="100"/>
-      <c r="R146" s="100"/>
-      <c r="S146" s="100"/>
-      <c r="T146" s="100"/>
-      <c r="U146" s="100"/>
-      <c r="V146" s="100"/>
-      <c r="W146" s="100"/>
-      <c r="X146" s="100"/>
-      <c r="Y146" s="100"/>
-      <c r="Z146" s="100"/>
-      <c r="AA146" s="100"/>
-      <c r="AB146" s="100"/>
-      <c r="AC146" s="100"/>
-      <c r="AD146" s="100"/>
+      <c r="B146" s="138"/>
+      <c r="C146" s="138"/>
+      <c r="D146" s="138"/>
+      <c r="E146" s="138"/>
+      <c r="F146" s="138"/>
+      <c r="G146" s="138"/>
+      <c r="H146" s="138"/>
+      <c r="I146" s="138"/>
+      <c r="J146" s="138"/>
+      <c r="K146" s="138"/>
+      <c r="L146" s="138"/>
+      <c r="M146" s="138"/>
+      <c r="N146" s="138"/>
+      <c r="O146" s="138"/>
+      <c r="Q146" s="138"/>
+      <c r="R146" s="138"/>
+      <c r="S146" s="138"/>
+      <c r="T146" s="138"/>
+      <c r="U146" s="138"/>
+      <c r="V146" s="138"/>
+      <c r="W146" s="138"/>
+      <c r="X146" s="138"/>
+      <c r="Y146" s="138"/>
+      <c r="Z146" s="138"/>
+      <c r="AA146" s="138"/>
+      <c r="AB146" s="138"/>
+      <c r="AC146" s="138"/>
+      <c r="AD146" s="138"/>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B147" s="100"/>
-      <c r="C147" s="100"/>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="100"/>
-      <c r="J147" s="100"/>
-      <c r="K147" s="100"/>
-      <c r="L147" s="100"/>
-      <c r="M147" s="100"/>
-      <c r="N147" s="100"/>
-      <c r="O147" s="100"/>
-      <c r="Q147" s="100"/>
-      <c r="R147" s="100"/>
-      <c r="S147" s="100"/>
-      <c r="T147" s="100"/>
-      <c r="U147" s="100"/>
-      <c r="V147" s="100"/>
-      <c r="W147" s="100"/>
-      <c r="X147" s="100"/>
-      <c r="Y147" s="100"/>
-      <c r="Z147" s="100"/>
-      <c r="AA147" s="100"/>
-      <c r="AB147" s="100"/>
-      <c r="AC147" s="100"/>
-      <c r="AD147" s="100"/>
+      <c r="B147" s="138"/>
+      <c r="C147" s="138"/>
+      <c r="D147" s="138"/>
+      <c r="E147" s="138"/>
+      <c r="F147" s="138"/>
+      <c r="G147" s="138"/>
+      <c r="H147" s="138"/>
+      <c r="I147" s="138"/>
+      <c r="J147" s="138"/>
+      <c r="K147" s="138"/>
+      <c r="L147" s="138"/>
+      <c r="M147" s="138"/>
+      <c r="N147" s="138"/>
+      <c r="O147" s="138"/>
+      <c r="Q147" s="138"/>
+      <c r="R147" s="138"/>
+      <c r="S147" s="138"/>
+      <c r="T147" s="138"/>
+      <c r="U147" s="138"/>
+      <c r="V147" s="138"/>
+      <c r="W147" s="138"/>
+      <c r="X147" s="138"/>
+      <c r="Y147" s="138"/>
+      <c r="Z147" s="138"/>
+      <c r="AA147" s="138"/>
+      <c r="AB147" s="138"/>
+      <c r="AC147" s="138"/>
+      <c r="AD147" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M67:X75"/>
     <mergeCell ref="B97:O98"/>
     <mergeCell ref="R97:AI98"/>
     <mergeCell ref="B145:O147"/>
     <mergeCell ref="Q145:AD147"/>
     <mergeCell ref="J112:R118"/>
-    <mergeCell ref="M67:X75"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q161"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="61" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="12.6328125" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="97"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="103"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="105">
+        <v>14</v>
+      </c>
+      <c r="C5" s="105">
+        <v>12</v>
+      </c>
+      <c r="D5" s="105">
+        <v>12</v>
+      </c>
+      <c r="E5" s="105">
+        <v>16</v>
+      </c>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="105">
+        <v>15</v>
+      </c>
+      <c r="C6" s="105">
+        <v>13</v>
+      </c>
+      <c r="D6" s="105">
+        <v>14</v>
+      </c>
+      <c r="E6" s="105">
+        <v>17</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="103"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="105">
+        <v>19</v>
+      </c>
+      <c r="C7" s="105">
+        <v>20</v>
+      </c>
+      <c r="D7" s="105">
+        <v>16</v>
+      </c>
+      <c r="E7" s="105">
+        <v>18</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="103"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="105">
+        <v>14</v>
+      </c>
+      <c r="C8" s="105">
+        <v>16</v>
+      </c>
+      <c r="D8" s="105">
+        <v>21</v>
+      </c>
+      <c r="E8" s="105">
+        <v>16</v>
+      </c>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="103"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="103"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="103"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="103"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="141" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="146"/>
+      <c r="H12" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="142"/>
+      <c r="J12" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="106">
+        <f>C21+J14</f>
+        <v>14</v>
+      </c>
+      <c r="C13" s="107">
+        <v>14</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109">
+        <v>12</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="110">
+        <v>12</v>
+      </c>
+      <c r="H13" s="111">
+        <f>I21+J14</f>
+        <v>16</v>
+      </c>
+      <c r="I13" s="107">
+        <v>16</v>
+      </c>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="140"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114">
+        <f>B13-C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="115">
+        <v>15</v>
+      </c>
+      <c r="E14" s="116"/>
+      <c r="F14" s="115">
+        <v>40</v>
+      </c>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="114">
+        <f>H13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="119">
+        <f>E13-E21</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="106">
+        <f>C21+J16</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="107">
+        <v>15</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="110">
+        <v>13</v>
+      </c>
+      <c r="F15" s="120">
+        <f>G21+J16</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="121">
+        <v>14</v>
+      </c>
+      <c r="H15" s="108"/>
+      <c r="I15" s="110">
+        <v>17</v>
+      </c>
+      <c r="J15" s="112"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="140"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114">
+        <f>B15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="115">
+        <v>15</v>
+      </c>
+      <c r="E16" s="117"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114">
+        <f>F15-G15</f>
+        <v>-1</v>
+      </c>
+      <c r="H16" s="115">
+        <v>15</v>
+      </c>
+      <c r="I16" s="117"/>
+      <c r="J16" s="119">
+        <f>I15-I21</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="106">
+        <f>C21+J18</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="107">
+        <v>19</v>
+      </c>
+      <c r="D17" s="106">
+        <f>E21+J18</f>
+        <v>14</v>
+      </c>
+      <c r="E17" s="107">
+        <v>20</v>
+      </c>
+      <c r="F17" s="106">
+        <f>G21+J18</f>
+        <v>14</v>
+      </c>
+      <c r="G17" s="107">
+        <v>16</v>
+      </c>
+      <c r="H17" s="108"/>
+      <c r="I17" s="110">
+        <v>18</v>
+      </c>
+      <c r="J17" s="112"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="140"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114">
+        <f>B17-C17</f>
+        <v>-3</v>
+      </c>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114">
+        <f>D17-E17</f>
+        <v>-6</v>
+      </c>
+      <c r="F18" s="113"/>
+      <c r="G18" s="114">
+        <f>F17-G17</f>
+        <v>-2</v>
+      </c>
+      <c r="H18" s="115">
+        <v>15</v>
+      </c>
+      <c r="I18" s="117"/>
+      <c r="J18" s="119">
+        <f>I17-I21</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="108"/>
+      <c r="C19" s="110">
+        <v>14</v>
+      </c>
+      <c r="D19" s="106">
+        <f>E21+J20</f>
+        <v>12</v>
+      </c>
+      <c r="E19" s="107">
+        <v>16</v>
+      </c>
+      <c r="F19" s="106">
+        <f>G21+J20</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="107">
+        <v>21</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="110">
+        <v>16</v>
+      </c>
+      <c r="J19" s="112"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="140"/>
+      <c r="B20" s="115">
+        <v>25</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114">
+        <f>D19-E19</f>
+        <v>-4</v>
+      </c>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114">
+        <f>F19-G19</f>
+        <v>-9</v>
+      </c>
+      <c r="H20" s="115">
+        <v>5</v>
+      </c>
+      <c r="I20" s="117"/>
+      <c r="J20" s="119">
+        <f>I19-I21</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123">
+        <f>C19-J20</f>
+        <v>-2</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="123">
+        <f>E15-J16</f>
+        <v>-4</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="123">
+        <f>G13-J14</f>
+        <v>-4</v>
+      </c>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123">
+        <v>0</v>
+      </c>
+      <c r="J21" s="124">
+        <f>SUMPRODUCT(B5:E8,B24:E27)</f>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="99"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="99"/>
+      <c r="I23" s="99"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="126">
+        <v>0</v>
+      </c>
+      <c r="C24" s="126">
+        <v>15</v>
+      </c>
+      <c r="D24" s="126">
+        <v>40</v>
+      </c>
+      <c r="E24" s="126">
+        <v>0</v>
+      </c>
+      <c r="I24" s="99"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="126">
+        <v>0</v>
+      </c>
+      <c r="C25" s="126">
+        <v>15</v>
+      </c>
+      <c r="D25" s="126">
+        <v>0</v>
+      </c>
+      <c r="E25" s="126">
+        <v>15</v>
+      </c>
+      <c r="I25" s="99"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="126">
+        <v>0</v>
+      </c>
+      <c r="C26" s="126">
+        <v>0</v>
+      </c>
+      <c r="D26" s="126">
+        <v>0</v>
+      </c>
+      <c r="E26" s="126">
+        <v>15</v>
+      </c>
+      <c r="I26" s="99"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="126">
+        <v>25</v>
+      </c>
+      <c r="C27" s="126">
+        <v>0</v>
+      </c>
+      <c r="D27" s="126">
+        <v>0</v>
+      </c>
+      <c r="E27" s="126">
+        <v>5</v>
+      </c>
+      <c r="I27" s="99"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="99"/>
+      <c r="I28" s="99"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="99"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="99"/>
+      <c r="I30" s="99"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+    </row>
+    <row r="33" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+    </row>
+    <row r="34" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+    </row>
+    <row r="35" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="129"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+    </row>
+    <row r="38" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q38" s="132" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q39" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="59">
+        <v>5</v>
+      </c>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63">
+        <f>C32</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61">
+        <v>1</v>
+      </c>
+      <c r="H41" s="62"/>
+      <c r="I41" s="61">
+        <v>6</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32">
+        <v>4</v>
+      </c>
+      <c r="L41" s="32"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="71">
+        <v>200</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="69">
+        <v>0</v>
+      </c>
+      <c r="E42" s="74"/>
+      <c r="F42" s="57">
+        <v>0</v>
+      </c>
+      <c r="G42" s="57"/>
+      <c r="H42" s="67">
+        <v>0</v>
+      </c>
+      <c r="I42" s="57"/>
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="40">
+        <f>N42-SUM(B42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="26"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61">
+        <v>6</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="59">
+        <f>C33</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59">
+        <v>4</v>
+      </c>
+      <c r="H43" s="62"/>
+      <c r="I43" s="61">
+        <v>4</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="39">
+        <v>6</v>
+      </c>
+      <c r="L43" s="39"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="26"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="69">
+        <v>0</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71">
+        <v>200</v>
+      </c>
+      <c r="E44" s="73"/>
+      <c r="F44" s="71">
+        <v>100</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="69">
+        <v>0</v>
+      </c>
+      <c r="I44" s="70"/>
+      <c r="J44" s="38">
+        <v>0</v>
+      </c>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="40">
+        <f>N44-SUM(B44:K44)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="26"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="61">
+        <v>9</v>
+      </c>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59">
+        <v>3</v>
+      </c>
+      <c r="H45" s="62"/>
+      <c r="I45" s="61">
+        <v>7</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32">
+        <v>5</v>
+      </c>
+      <c r="L45" s="32"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="33"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="67">
+        <v>0</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="67">
+        <v>0</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="71">
+        <v>200</v>
+      </c>
+      <c r="G46" s="73"/>
+      <c r="H46" s="69">
+        <v>0</v>
+      </c>
+      <c r="I46" s="70"/>
+      <c r="J46" s="38">
+        <v>0</v>
+      </c>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="33">
+        <f>N46-SUM(B46:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63">
+        <v>7</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61">
+        <f>C35</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="58"/>
+      <c r="G47" s="60">
+        <v>5</v>
+      </c>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59">
+        <v>8</v>
+      </c>
+      <c r="J47" s="62"/>
+      <c r="K47" s="63">
+        <v>7</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="32"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="69">
+        <v>0</v>
+      </c>
+      <c r="C48" s="74"/>
+      <c r="D48" s="70">
+        <v>0</v>
+      </c>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71">
+        <v>100</v>
+      </c>
+      <c r="G48" s="72"/>
+      <c r="H48" s="71">
+        <v>100</v>
+      </c>
+      <c r="I48" s="73"/>
+      <c r="J48" s="69">
+        <v>0</v>
+      </c>
+      <c r="K48" s="74"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="40">
+        <f>N48-SUM(B48:K48)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32">
+        <v>3</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32">
+        <v>2</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32">
+        <v>4</v>
+      </c>
+      <c r="H49" s="58"/>
+      <c r="I49" s="60">
+        <v>2</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="41">
+        <v>0</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="41">
+        <v>0</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="41">
+        <v>0</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="71">
+        <v>100</v>
+      </c>
+      <c r="I50" s="72"/>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="40">
+        <f>N50-SUM(B50:K50)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="38"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="77">
+        <f>SUM(M41:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="91">
+        <f>SUM(N41:N50)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38">
+        <f>SUM(B41:B50)-B53</f>
+        <v>200</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="37">
+        <f>SUM(D41:D50)-D53</f>
+        <v>200</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38">
+        <f>SUM(F41:F50)-F53</f>
+        <v>400</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="37">
+        <f>SUM(H41:H50)-H53</f>
+        <v>200</v>
+      </c>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38">
+        <f>SUM(J41:J50)-J53</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="79">
+        <f>SUM(B52:K52)</f>
+        <v>1000</v>
+      </c>
+      <c r="M52" s="53">
+        <f>C41*B42+D44*E43+F44*G43+F46*G45+F48*G47+H48*I47+H50*I49</f>
+        <v>3500</v>
+      </c>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="23">
+        <f>B36</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24">
+        <f>C36</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="24">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="23">
+        <f>F36</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="25"/>
+      <c r="L53" s="80">
+        <f>SUM(B53:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56"/>
+      <c r="B56" s="56">
+        <f>B42</f>
+        <v>200</v>
+      </c>
+      <c r="C56" s="56">
+        <f>D42</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="56">
+        <f>F42</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="56">
+        <f>H42</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="56">
+        <f>J42</f>
+        <v>0</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="56">
+        <f>B44</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="56">
+        <f>D44</f>
+        <v>200</v>
+      </c>
+      <c r="D57" s="56">
+        <f>F44</f>
+        <v>100</v>
+      </c>
+      <c r="E57" s="56">
+        <f>H44</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="56">
+        <f>J44</f>
+        <v>0</v>
+      </c>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58"/>
+      <c r="B58" s="56">
+        <f>B46</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="56">
+        <f>D46</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="56">
+        <f>F46</f>
+        <v>200</v>
+      </c>
+      <c r="E58" s="56">
+        <f>H46</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="56">
+        <f>J46</f>
+        <v>0</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59"/>
+      <c r="B59" s="56">
+        <f>B48</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="56">
+        <f>D48</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="56">
+        <f>F48</f>
+        <v>100</v>
+      </c>
+      <c r="E59" s="56">
+        <f>H48</f>
+        <v>100</v>
+      </c>
+      <c r="F59" s="56">
+        <f>J48</f>
+        <v>0</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60"/>
+      <c r="B60" s="56">
+        <f>B50</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="56">
+        <f>D50</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="56">
+        <f>F50</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="56">
+        <f>H50</f>
+        <v>100</v>
+      </c>
+      <c r="F60" s="56">
+        <f>J50</f>
+        <v>0</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="Q60" s="132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="19" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A107" s="133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.5" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
